--- a/biology/Botanique/Groseillier_à_maquereau/Groseillier_à_maquereau.xlsx
+++ b/biology/Botanique/Groseillier_à_maquereau/Groseillier_à_maquereau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groseillier_%C3%A0_maquereau</t>
+          <t>Groseillier_à_maquereau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ribes uva-crispa
 Le groseillier à maquereau est une espèce d'arbustes épineux à gros fruits d'abord vert pâle, devenant, selon les variétés, blanchâtres et translucides ou rouge sombre à maturité.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groseillier_%C3%A0_maquereau</t>
+          <t>Groseillier_à_maquereau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le qualificatif maquereau est d'étymologie incertaine mais il se réfèrerait au mot maquereau, sorte de poisson. Pierre Guiraud qui propose toujours des étymologies originales y voit le dérivé d'un radical makk- au sens de « tache », le fruit étant tacheté[1]. Ce terme tiendrait aussi au fait que les maquereaux (poissons) étaient traditionnellement cuisinés accompagnés de ces fruits en sauce[2]; cette pratique est attestée dès le xviiie siècle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le qualificatif maquereau est d'étymologie incertaine mais il se réfèrerait au mot maquereau, sorte de poisson. Pierre Guiraud qui propose toujours des étymologies originales y voit le dérivé d'un radical makk- au sens de « tache », le fruit étant tacheté. Ce terme tiendrait aussi au fait que les maquereaux (poissons) étaient traditionnellement cuisinés accompagnés de ces fruits en sauce; cette pratique est attestée dès le xviiie siècle.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groseillier_%C3%A0_maquereau</t>
+          <t>Groseillier_à_maquereau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Noms régionaux du fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse romande, la groseille à maquereau est simplement nommée « groseille », la groseille commune étant appelée « raisinet ».
-Dans le Nord de la France, le fruit est également appelé blette, croupoux, croucpoux, croque-poux, gratte-poux, péteuse[4] ou encore caconne.  Dans le Loiret, il est dénommé claque-poux, croque-poux, ou encore pétasse et dans la Nièvre, groseille verte, claque-poux ou  croque-poux en Belgique[5]. On parle de ballon[6] dans certaines régions.
-En normand, toutes les groseilles à grappes se nomment gade, grade, garde, gadelle, gradelle, gradille selon les pays, terme issu du mot vieux norrois gaddr « épine » qui désigne à l'origine les épines du groseillier à maquereau[7].
-Dans le domaine occitan, on dit grosèla en languedocien et provençal ; agrasson en languedocien; agresson et groselha en gascon pour les groseilles à maquereau[8].
+Dans le Nord de la France, le fruit est également appelé blette, croupoux, croucpoux, croque-poux, gratte-poux, péteuse ou encore caconne.  Dans le Loiret, il est dénommé claque-poux, croque-poux, ou encore pétasse et dans la Nièvre, groseille verte, claque-poux ou  croque-poux en Belgique. On parle de ballon dans certaines régions.
+En normand, toutes les groseilles à grappes se nomment gade, grade, garde, gadelle, gradelle, gradille selon les pays, terme issu du mot vieux norrois gaddr « épine » qui désigne à l'origine les épines du groseillier à maquereau.
+Dans le domaine occitan, on dit grosèla en languedocien et provençal ; agrasson en languedocien; agresson et groselha en gascon pour les groseilles à maquereau.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Groseillier_%C3%A0_maquereau</t>
+          <t>Groseillier_à_maquereau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste fruitier rustique à feuillage caduc et à rameaux plus ou moins épineux atteint 50 à 150 cm de haut.
 Période de floraison : printemps
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Groseillier_%C3%A0_maquereau</t>
+          <t>Groseillier_à_maquereau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier à maquereau se rencontre à l'état sauvage dans les forêts des Alpes et de l’est de la France.
 </t>
